--- a/Results/Descr_statistics/res_location_1.xlsx
+++ b/Results/Descr_statistics/res_location_1.xlsx
@@ -3709,13 +3709,23 @@
       <c r="B109" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>-+</t>
